--- a/biology/Botanique/Adirondack_Red/Adirondack_Red.xlsx
+++ b/biology/Botanique/Adirondack_Red/Adirondack_Red.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adirondack Red est une variété de pomme de terre à chair rouge créée aux États-Unis en 2004.
-C'est un hybride né d'un croisement de clones de sélection ('N40-2' x 'Q155-3') réalisé en 1994 au Collège d'agriculture et des sciences de la vie de l'université Cornell par les sélectionneurs Robert L. Plaisted, Ken Paddock et Walter De Jong[1]
+C'est un hybride né d'un croisement de clones de sélection ('N40-2' x 'Q155-3') réalisé en 1994 au Collège d'agriculture et des sciences de la vie de l'université Cornell par les sélectionneurs Robert L. Plaisted, Ken Paddock et Walter De Jong
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une variété inhabituelle car elle a à la fois la peau et la chair de couleur rouge, et a une teneur élevée en anti-oxydants[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une variété inhabituelle car elle a à la fois la peau et la chair de couleur rouge, et a une teneur élevée en anti-oxydants. 
 La plante, au feuillage vert foncé, aux fleurs rouge-pourpre, a un port étalé, semi-dressé. C'est une variété de précocité moyenne, à rendement moyen à élevé.
-Les tubercules sont longs, légèrement aplatis, à peau rouge violacé, avec des yeux peu enfoncés, et à chair rose à rouge[1].
+Les tubercules sont longs, légèrement aplatis, à peau rouge violacé, avec des yeux peu enfoncés, et à chair rose à rouge.
 </t>
         </is>
       </c>
